--- a/results/mp/deberta/corona/confidence/42/stop-words-0.15/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-0.15/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="1450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="1450">
   <si>
     <t>anchor score</t>
   </si>
@@ -508,724 +508,724 @@
     <t>entire</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>guide</t>
+  </si>
+  <si>
+    <t>suppliers</t>
+  </si>
+  <si>
+    <t>nyc</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>canadian</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>worldwide</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>combat</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>communities</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>april</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>minister</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>residents</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>survive</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>rising</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>ex</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>advice</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>queue</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>appreciated</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>appreciation</t>
+  </si>
+  <si>
+    <t>surely</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>hilarious</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>encouraging</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>initiative</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>supporting</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>guide</t>
-  </si>
-  <si>
-    <t>suppliers</t>
-  </si>
-  <si>
-    <t>nyc</t>
-  </si>
-  <si>
-    <t>agriculture</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>canadian</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>appreciate</t>
+  </si>
+  <si>
+    <t>grateful</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>thankful</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>humor</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>laugh</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>comedy</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>assure</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>episode</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
+    <t>protected</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>resource</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>worldwide</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>pa</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>listen</t>
-  </si>
-  <si>
-    <t>combat</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>communities</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>april</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>personal</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>minister</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>residents</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>survive</t>
-  </si>
-  <si>
-    <t>sunday</t>
-  </si>
-  <si>
-    <t>farm</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>fruit</t>
-  </si>
-  <si>
-    <t>sentiment</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>especially</t>
-  </si>
-  <si>
-    <t>etc</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>rising</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>eco</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>ex</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>advice</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>queue</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>front</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>appreciated</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>winning</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>appreciation</t>
-  </si>
-  <si>
-    <t>surely</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>honest</t>
-  </si>
-  <si>
-    <t>hilarious</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>innovation</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>encouraging</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>definitely</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>brave</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>luxury</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>initiative</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>opportunity</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>supporting</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>win</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>useful</t>
-  </si>
-  <si>
-    <t>trust</t>
-  </si>
-  <si>
-    <t>appreciate</t>
-  </si>
-  <si>
-    <t>grateful</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>thankful</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>humor</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>laugh</t>
-  </si>
-  <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>comedy</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>assure</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>episode</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>updated</t>
-  </si>
-  <si>
-    <t>affordable</t>
-  </si>
-  <si>
-    <t>protected</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>technology</t>
-  </si>
-  <si>
-    <t>resource</t>
   </si>
   <si>
     <t>partners</t>
@@ -4732,7 +4732,7 @@
         <v>81</v>
       </c>
       <c r="J1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -4911,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -4961,7 +4961,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -5061,7 +5061,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -5111,7 +5111,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -5161,7 +5161,7 @@
         <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -5261,7 +5261,7 @@
         <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K12">
         <v>0.9444444444444444</v>
@@ -5311,7 +5311,7 @@
         <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K13">
         <v>0.9230769230769231</v>
@@ -5411,7 +5411,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K15">
         <v>0.9152542372881356</v>
@@ -5511,7 +5511,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K17">
         <v>0.9</v>
@@ -5561,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K18">
         <v>0.8947368421052632</v>
@@ -5611,7 +5611,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K19">
         <v>0.8888888888888888</v>
@@ -5761,7 +5761,7 @@
         <v>3</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K22">
         <v>0.875</v>
@@ -5811,7 +5811,7 @@
         <v>162</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K23">
         <v>0.875</v>
@@ -5911,7 +5911,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K25">
         <v>0.8571428571428571</v>
@@ -5961,7 +5961,7 @@
         <v>7</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K26">
         <v>0.8571428571428571</v>
@@ -6011,7 +6011,7 @@
         <v>6</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K27">
         <v>0.8503937007874016</v>
@@ -6061,7 +6061,7 @@
         <v>3</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K28">
         <v>0.8461538461538461</v>
@@ -6111,7 +6111,7 @@
         <v>5</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K29">
         <v>0.8461538461538461</v>
@@ -6261,7 +6261,7 @@
         <v>8</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K32">
         <v>0.8333333333333334</v>
@@ -6361,7 +6361,7 @@
         <v>6</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K34">
         <v>0.8333333333333334</v>
@@ -6411,7 +6411,7 @@
         <v>4</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K35">
         <v>0.8333333333333334</v>
@@ -6461,7 +6461,7 @@
         <v>2</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K36">
         <v>0.8333333333333334</v>
@@ -6511,7 +6511,7 @@
         <v>2</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K37">
         <v>0.8333333333333334</v>
@@ -6561,7 +6561,7 @@
         <v>2</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K38">
         <v>0.8181818181818182</v>
@@ -6611,7 +6611,7 @@
         <v>2</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K39">
         <v>0.8</v>
@@ -6861,7 +6861,7 @@
         <v>5</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K44">
         <v>0.8</v>
@@ -6911,7 +6911,7 @@
         <v>5</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K45">
         <v>0.8</v>
@@ -7011,7 +7011,7 @@
         <v>5</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K47">
         <v>0.7777777777777778</v>
@@ -7061,7 +7061,7 @@
         <v>5</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K48">
         <v>0.7727272727272727</v>
@@ -7111,7 +7111,7 @@
         <v>8</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K49">
         <v>0.7658227848101266</v>
@@ -7261,7 +7261,7 @@
         <v>15</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K52">
         <v>0.75</v>
@@ -7411,7 +7411,7 @@
         <v>3</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K55">
         <v>0.7301587301587301</v>
@@ -7511,7 +7511,7 @@
         <v>3</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K57">
         <v>0.7142857142857143</v>
@@ -7561,7 +7561,7 @@
         <v>3</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K58">
         <v>0.7142857142857143</v>
@@ -7611,7 +7611,7 @@
         <v>3</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K59">
         <v>0.7</v>
@@ -7661,7 +7661,7 @@
         <v>6</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K60">
         <v>0.7</v>
@@ -7761,7 +7761,7 @@
         <v>17</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K62">
         <v>0.6875</v>
@@ -7811,7 +7811,7 @@
         <v>15</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K63">
         <v>0.6666666666666666</v>
@@ -7911,7 +7911,7 @@
         <v>4</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K65">
         <v>0.6666666666666666</v>
@@ -8011,7 +8011,7 @@
         <v>4</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K67">
         <v>0.6666666666666666</v>
@@ -8061,7 +8061,7 @@
         <v>4</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K68">
         <v>0.6666666666666666</v>
@@ -8161,7 +8161,7 @@
         <v>4</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K70">
         <v>0.6666666666666666</v>
@@ -8211,7 +8211,7 @@
         <v>4</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K71">
         <v>0.6666666666666666</v>
@@ -8261,28 +8261,28 @@
         <v>21</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="K72">
-        <v>0.6594827586206896</v>
+        <v>0.6534653465346535</v>
       </c>
       <c r="L72">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="M72">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="N72">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O72">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -8311,28 +8311,28 @@
         <v>13</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>126</v>
+        <v>371</v>
       </c>
       <c r="K73">
-        <v>0.6534653465346535</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L73">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="M73">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="N73">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -8361,16 +8361,16 @@
         <v>61</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K74">
-        <v>0.6428571428571429</v>
+        <v>0.6401673640167364</v>
       </c>
       <c r="L74">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="M74">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -8382,7 +8382,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>10</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -8411,7 +8411,7 @@
         <v>9</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K75">
         <v>0.6382978723404256</v>
@@ -8461,7 +8461,7 @@
         <v>9</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K76">
         <v>0.6363636363636364</v>
@@ -8511,7 +8511,7 @@
         <v>14</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K77">
         <v>0.6363636363636364</v>
@@ -8561,7 +8561,7 @@
         <v>14</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K78">
         <v>0.6363636363636364</v>
@@ -8611,7 +8611,7 @@
         <v>20</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K79">
         <v>0.6363636363636364</v>
@@ -8661,7 +8661,7 @@
         <v>5</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K80">
         <v>0.625</v>
@@ -8711,7 +8711,7 @@
         <v>5</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K81">
         <v>0.625</v>
@@ -8761,7 +8761,7 @@
         <v>5</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K82">
         <v>0.625</v>
@@ -8811,7 +8811,7 @@
         <v>5</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K83">
         <v>0.625</v>
@@ -8861,7 +8861,7 @@
         <v>5</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K84">
         <v>0.6153846153846154</v>
@@ -8911,7 +8911,7 @@
         <v>5</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K85">
         <v>0.6126760563380281</v>
@@ -9011,7 +9011,7 @@
         <v>5</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K87">
         <v>0.6</v>
@@ -9061,7 +9061,7 @@
         <v>15</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K88">
         <v>0.6</v>
@@ -9111,7 +9111,7 @@
         <v>5</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K89">
         <v>0.6</v>
@@ -9161,7 +9161,7 @@
         <v>5</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K90">
         <v>0.6</v>
@@ -9261,7 +9261,7 @@
         <v>10</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K92">
         <v>0.5833333333333334</v>
@@ -9361,7 +9361,7 @@
         <v>5</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K94">
         <v>0.5714285714285714</v>
@@ -9411,7 +9411,7 @@
         <v>22</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K95">
         <v>0.5714285714285714</v>
@@ -9461,7 +9461,7 @@
         <v>11</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K96">
         <v>0.5714285714285714</v>
@@ -9511,7 +9511,7 @@
         <v>22</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K97">
         <v>0.5714285714285714</v>
@@ -9561,7 +9561,7 @@
         <v>18</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K98">
         <v>0.5625</v>
@@ -9611,7 +9611,7 @@
         <v>6</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K99">
         <v>0.5555555555555556</v>
@@ -9661,7 +9661,7 @@
         <v>6</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K100">
         <v>0.5555555555555556</v>
@@ -9761,7 +9761,7 @@
         <v>6</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K102">
         <v>0.5555555555555556</v>
@@ -9861,7 +9861,7 @@
         <v>6</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K104">
         <v>0.5454545454545454</v>
@@ -9911,7 +9911,7 @@
         <v>6</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K105">
         <v>0.5454545454545454</v>
@@ -9961,7 +9961,7 @@
         <v>6</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K106">
         <v>0.5416666666666666</v>
@@ -10011,7 +10011,7 @@
         <v>6</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K107">
         <v>0.5384615384615384</v>
@@ -10061,7 +10061,7 @@
         <v>18</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K108">
         <v>0.5384615384615384</v>
@@ -10111,7 +10111,7 @@
         <v>6</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K109">
         <v>0.5333333333333333</v>
@@ -10161,28 +10161,28 @@
         <v>6</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>178</v>
+        <v>403</v>
       </c>
       <c r="K110">
-        <v>0.5213414634146342</v>
+        <v>0.5029411764705882</v>
       </c>
       <c r="L110">
         <v>171</v>
       </c>
       <c r="M110">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="N110">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O110">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q110">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -11211,7 +11211,7 @@
         <v>8</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K131">
         <v>0.46875</v>
@@ -11311,7 +11311,7 @@
         <v>8</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K133">
         <v>0.4659090909090909</v>
@@ -11511,7 +11511,7 @@
         <v>17</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K137">
         <v>0.4529616724738676</v>
@@ -11761,7 +11761,7 @@
         <v>9</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K142">
         <v>0.44</v>
@@ -12561,7 +12561,7 @@
         <v>11</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K158">
         <v>0.4264705882352941</v>
@@ -12640,25 +12640,25 @@
         <v>164</v>
       </c>
       <c r="B160">
-        <v>0.08139534883720931</v>
+        <v>0.08</v>
       </c>
       <c r="C160">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D160">
-        <v>160</v>
+        <v>2</v>
       </c>
       <c r="E160">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>444</v>
@@ -12690,28 +12690,28 @@
         <v>165</v>
       </c>
       <c r="B161">
-        <v>0.08</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K161">
         <v>0.4162303664921466</v>
@@ -12746,13 +12746,13 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E162">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F162">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
@@ -12761,7 +12761,7 @@
         <v>12</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K162">
         <v>0.4130434782608696</v>
@@ -12796,13 +12796,13 @@
         <v>1</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E163">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F163">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
@@ -12846,13 +12846,13 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E164">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F164">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
@@ -12896,22 +12896,22 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E165">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
         <v>12</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K165">
         <v>0.4074074074074074</v>
@@ -12946,16 +12946,16 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
         <v>12</v>
@@ -12996,22 +12996,22 @@
         <v>1</v>
       </c>
       <c r="D167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E167">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167">
         <v>12</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K167">
         <v>0.4</v>
@@ -13046,22 +13046,22 @@
         <v>1</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168">
         <v>12</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K168">
         <v>0.4</v>
@@ -13093,22 +13093,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E169">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>64</v>
@@ -13140,13 +13140,13 @@
         <v>174</v>
       </c>
       <c r="B170">
-        <v>0.07692307692307693</v>
+        <v>0.075</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -13158,7 +13158,7 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>447</v>
@@ -13190,25 +13190,25 @@
         <v>175</v>
       </c>
       <c r="B171">
-        <v>0.075</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>58</v>
@@ -13246,16 +13246,16 @@
         <v>1</v>
       </c>
       <c r="D172">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E172">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172">
         <v>13</v>
@@ -13290,25 +13290,25 @@
         <v>177</v>
       </c>
       <c r="B173">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>449</v>
@@ -13340,25 +13340,25 @@
         <v>178</v>
       </c>
       <c r="B174">
-        <v>0.07100591715976332</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C174">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D174">
-        <v>183</v>
+        <v>5</v>
       </c>
       <c r="E174">
-        <v>0.93</v>
+        <v>0.6</v>
       </c>
       <c r="F174">
-        <v>0.06999999999999995</v>
+        <v>0.4</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>450</v>
@@ -13443,22 +13443,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D176">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E176">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="F176">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>452</v>
@@ -13496,16 +13496,16 @@
         <v>1</v>
       </c>
       <c r="D177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E177">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
         <v>14</v>
@@ -13546,13 +13546,13 @@
         <v>1</v>
       </c>
       <c r="D178">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E178">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F178">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
@@ -13561,7 +13561,7 @@
         <v>14</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K178">
         <v>0.3846153846153846</v>
@@ -13590,13 +13590,13 @@
         <v>183</v>
       </c>
       <c r="B179">
-        <v>0.06666666666666667</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -13608,7 +13608,7 @@
         <v>0</v>
       </c>
       <c r="H179">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>454</v>
@@ -13640,28 +13640,28 @@
         <v>184</v>
       </c>
       <c r="B180">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E180">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K180">
         <v>0.3809523809523809</v>
@@ -13690,13 +13690,13 @@
         <v>185</v>
       </c>
       <c r="B181">
-        <v>0.06493506493506493</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C181">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D181">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -13708,7 +13708,7 @@
         <v>0</v>
       </c>
       <c r="H181">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>455</v>
@@ -13740,25 +13740,25 @@
         <v>186</v>
       </c>
       <c r="B182">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>456</v>
@@ -13790,25 +13790,25 @@
         <v>187</v>
       </c>
       <c r="B183">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D183">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>457</v>
@@ -13846,13 +13846,13 @@
         <v>1</v>
       </c>
       <c r="D184">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E184">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="F184">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
@@ -13896,16 +13896,16 @@
         <v>1</v>
       </c>
       <c r="D185">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E185">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185">
         <v>15</v>
@@ -13940,25 +13940,25 @@
         <v>190</v>
       </c>
       <c r="B186">
-        <v>0.0625</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E186">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F186">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>460</v>
@@ -13990,13 +13990,13 @@
         <v>191</v>
       </c>
       <c r="B187">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -14008,7 +14008,7 @@
         <v>0</v>
       </c>
       <c r="H187">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>461</v>
@@ -14040,25 +14040,25 @@
         <v>192</v>
       </c>
       <c r="B188">
-        <v>0.06060606060606061</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E188">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F188">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>462</v>
@@ -14093,22 +14093,22 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C189">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>463</v>
@@ -14143,22 +14143,22 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E190">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H190">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>464</v>
@@ -14196,13 +14196,13 @@
         <v>1</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E191">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F191">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
@@ -14243,22 +14243,22 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>465</v>
@@ -14290,25 +14290,25 @@
         <v>197</v>
       </c>
       <c r="B193">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D193">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E193">
-        <v>0.92</v>
+        <v>0.25</v>
       </c>
       <c r="F193">
-        <v>0.07999999999999996</v>
+        <v>0.75</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>466</v>
@@ -14340,25 +14340,25 @@
         <v>198</v>
       </c>
       <c r="B194">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E194">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="F194">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>467</v>
@@ -14393,22 +14393,22 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="C195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D195">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E195">
-        <v>0.25</v>
+        <v>0.83</v>
       </c>
       <c r="F195">
-        <v>0.75</v>
+        <v>0.17</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>468</v>
@@ -14446,13 +14446,13 @@
         <v>1</v>
       </c>
       <c r="D196">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E196">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="F196">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
@@ -14496,13 +14496,13 @@
         <v>1</v>
       </c>
       <c r="D197">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E197">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F197">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
@@ -14546,16 +14546,16 @@
         <v>1</v>
       </c>
       <c r="D198">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E198">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198">
         <v>17</v>
@@ -14596,13 +14596,13 @@
         <v>1</v>
       </c>
       <c r="D199">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E199">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F199">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
@@ -14640,13 +14640,13 @@
         <v>204</v>
       </c>
       <c r="B200">
-        <v>0.05555555555555555</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -14658,7 +14658,7 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>472</v>
@@ -14690,25 +14690,25 @@
         <v>205</v>
       </c>
       <c r="B201">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D201">
         <v>2</v>
       </c>
       <c r="E201">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>473</v>
@@ -14740,25 +14740,25 @@
         <v>206</v>
       </c>
       <c r="B202">
-        <v>0.05405405405405406</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>474</v>
@@ -14793,22 +14793,22 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>475</v>
@@ -14846,13 +14846,13 @@
         <v>1</v>
       </c>
       <c r="D204">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E204">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="F204">
-        <v>0.17</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
@@ -14890,28 +14890,28 @@
         <v>209</v>
       </c>
       <c r="B205">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E205">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K205">
         <v>0.3478260869565217</v>
@@ -14940,25 +14940,25 @@
         <v>210</v>
       </c>
       <c r="B206">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D206">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="E206">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F206">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>477</v>
@@ -14990,25 +14990,25 @@
         <v>211</v>
       </c>
       <c r="B207">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>478</v>
@@ -15040,25 +15040,25 @@
         <v>212</v>
       </c>
       <c r="B208">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D208">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E208">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F208">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>479</v>
@@ -15096,13 +15096,13 @@
         <v>1</v>
       </c>
       <c r="D209">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="E209">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="F209">
-        <v>0.03000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
@@ -15140,25 +15140,25 @@
         <v>214</v>
       </c>
       <c r="B210">
-        <v>0.05</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="E210">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F210">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>481</v>
@@ -15190,25 +15190,25 @@
         <v>215</v>
       </c>
       <c r="B211">
-        <v>0.05</v>
+        <v>0.04848484848484848</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D211">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="E211">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F211">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>482</v>
@@ -15240,25 +15240,25 @@
         <v>216</v>
       </c>
       <c r="B212">
-        <v>0.04878048780487805</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E212">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>483</v>
@@ -15290,25 +15290,25 @@
         <v>217</v>
       </c>
       <c r="B213">
-        <v>0.04848484848484848</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C213">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="E213">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F213">
-        <v>0.06000000000000005</v>
+        <v>0.33</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>70</v>
@@ -15346,16 +15346,16 @@
         <v>1</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214">
         <v>20</v>
@@ -15396,13 +15396,13 @@
         <v>1</v>
       </c>
       <c r="D215">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E215">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F215">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
@@ -15440,25 +15440,25 @@
         <v>220</v>
       </c>
       <c r="B216">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E216">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F216">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>486</v>
@@ -15490,25 +15490,25 @@
         <v>221</v>
       </c>
       <c r="B217">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E217">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F217">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>487</v>
@@ -15540,25 +15540,25 @@
         <v>222</v>
       </c>
       <c r="B218">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E218">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F218">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>488</v>
@@ -15590,25 +15590,25 @@
         <v>223</v>
       </c>
       <c r="B219">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E219">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F219">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>489</v>
@@ -15646,13 +15646,13 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E220">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F220">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
@@ -15696,13 +15696,13 @@
         <v>1</v>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E221">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F221">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
@@ -15746,16 +15746,16 @@
         <v>1</v>
       </c>
       <c r="D222">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E222">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H222">
         <v>22</v>
@@ -15796,16 +15796,16 @@
         <v>1</v>
       </c>
       <c r="D223">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E223">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H223">
         <v>22</v>
@@ -15840,25 +15840,25 @@
         <v>228</v>
       </c>
       <c r="B224">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F224">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>494</v>
@@ -15890,7 +15890,7 @@
         <v>229</v>
       </c>
       <c r="B225">
-        <v>0.04347826086956522</v>
+        <v>0.04</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -15908,7 +15908,7 @@
         <v>0</v>
       </c>
       <c r="H225">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>495</v>
@@ -15940,25 +15940,25 @@
         <v>230</v>
       </c>
       <c r="B226">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E226">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F226">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>496</v>
@@ -15990,7 +15990,7 @@
         <v>231</v>
       </c>
       <c r="B227">
-        <v>0.04</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -16008,7 +16008,7 @@
         <v>0</v>
       </c>
       <c r="H227">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>74</v>
@@ -16040,25 +16040,25 @@
         <v>232</v>
       </c>
       <c r="B228">
-        <v>0.04</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E228">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F228">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>497</v>
@@ -16093,22 +16093,22 @@
         <v>0.03703703703703703</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F229">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H229">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>498</v>
@@ -16146,16 +16146,16 @@
         <v>1</v>
       </c>
       <c r="D230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E230">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H230">
         <v>26</v>
@@ -16190,25 +16190,25 @@
         <v>235</v>
       </c>
       <c r="B231">
-        <v>0.03703703703703703</v>
+        <v>0.03658536585365853</v>
       </c>
       <c r="C231">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D231">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E231">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F231">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>500</v>
@@ -16240,7 +16240,7 @@
         <v>236</v>
       </c>
       <c r="B232">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -16258,7 +16258,7 @@
         <v>0</v>
       </c>
       <c r="H232">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>501</v>
@@ -16290,25 +16290,25 @@
         <v>237</v>
       </c>
       <c r="B233">
-        <v>0.03658536585365853</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C233">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D233">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E233">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F233">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>502</v>
@@ -16346,16 +16346,16 @@
         <v>1</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H234">
         <v>27</v>
@@ -16390,25 +16390,25 @@
         <v>239</v>
       </c>
       <c r="B235">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E235">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F235">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>503</v>
@@ -16440,25 +16440,25 @@
         <v>240</v>
       </c>
       <c r="B236">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E236">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F236">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>504</v>
@@ -16490,25 +16490,25 @@
         <v>241</v>
       </c>
       <c r="B237">
-        <v>0.03448275862068965</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D237">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E237">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F237">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>505</v>
@@ -16540,28 +16540,28 @@
         <v>242</v>
       </c>
       <c r="B238">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E238">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="F238">
-        <v>0.17</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K238">
         <v>0.32</v>
@@ -16590,25 +16590,25 @@
         <v>243</v>
       </c>
       <c r="B239">
-        <v>0.03389830508474576</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E239">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F239">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>506</v>
@@ -16640,25 +16640,25 @@
         <v>244</v>
       </c>
       <c r="B240">
-        <v>0.03333333333333333</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D240">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E240">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="F240">
-        <v>0.07999999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>507</v>
@@ -16690,25 +16690,25 @@
         <v>245</v>
       </c>
       <c r="B241">
-        <v>0.03333333333333333</v>
+        <v>0.03125</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E241">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H241">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>508</v>
@@ -16740,25 +16740,25 @@
         <v>246</v>
       </c>
       <c r="B242">
-        <v>0.03174603174603174</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D242">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E242">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="F242">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>509</v>
@@ -16790,7 +16790,7 @@
         <v>247</v>
       </c>
       <c r="B243">
-        <v>0.03125</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -16808,7 +16808,7 @@
         <v>0</v>
       </c>
       <c r="H243">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>510</v>
@@ -16840,25 +16840,25 @@
         <v>248</v>
       </c>
       <c r="B244">
-        <v>0.0303030303030303</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E244">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="F244">
-        <v>0.2</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>511</v>
@@ -16890,7 +16890,7 @@
         <v>249</v>
       </c>
       <c r="B245">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -16908,7 +16908,7 @@
         <v>0</v>
       </c>
       <c r="H245">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>512</v>
@@ -16940,25 +16940,25 @@
         <v>250</v>
       </c>
       <c r="B246">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E246">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H246">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>513</v>
@@ -16990,7 +16990,7 @@
         <v>251</v>
       </c>
       <c r="B247">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -17008,7 +17008,7 @@
         <v>0</v>
       </c>
       <c r="H247">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>148</v>
@@ -17046,16 +17046,16 @@
         <v>1</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F248">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H248">
         <v>35</v>
@@ -17090,25 +17090,25 @@
         <v>253</v>
       </c>
       <c r="B249">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F249">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H249">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>515</v>
@@ -17140,28 +17140,28 @@
         <v>254</v>
       </c>
       <c r="B250">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E250">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F250">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K250">
         <v>0.3043478260869565</v>
@@ -17190,25 +17190,25 @@
         <v>255</v>
       </c>
       <c r="B251">
-        <v>0.02702702702702703</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E251">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F251">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>516</v>
@@ -17240,25 +17240,25 @@
         <v>256</v>
       </c>
       <c r="B252">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E252">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F252">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>517</v>
@@ -17290,25 +17290,25 @@
         <v>257</v>
       </c>
       <c r="B253">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D253">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E253">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H253">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>518</v>
@@ -17340,25 +17340,25 @@
         <v>258</v>
       </c>
       <c r="B254">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E254">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H254">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>519</v>
@@ -17393,22 +17393,22 @@
         <v>0.025</v>
       </c>
       <c r="C255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D255">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F255">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H255">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>520</v>
@@ -17440,25 +17440,25 @@
         <v>260</v>
       </c>
       <c r="B256">
-        <v>0.025</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D256">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F256">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H256">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>521</v>
@@ -17490,25 +17490,25 @@
         <v>261</v>
       </c>
       <c r="B257">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E257">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F257">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>522</v>
@@ -17540,25 +17540,25 @@
         <v>262</v>
       </c>
       <c r="B258">
-        <v>0.02469135802469136</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D258">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E258">
-        <v>0.33</v>
+        <v>0.86</v>
       </c>
       <c r="F258">
-        <v>0.6699999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>523</v>
@@ -17590,25 +17590,25 @@
         <v>263</v>
       </c>
       <c r="B259">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E259">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F259">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H259">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>524</v>
@@ -17640,25 +17640,25 @@
         <v>264</v>
       </c>
       <c r="B260">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E260">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F260">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>525</v>
@@ -17690,25 +17690,25 @@
         <v>265</v>
       </c>
       <c r="B261">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E261">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F261">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H261">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>526</v>
@@ -17740,28 +17740,28 @@
         <v>266</v>
       </c>
       <c r="B262">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E262">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F262">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K262">
         <v>0.2926829268292683</v>
@@ -17790,25 +17790,25 @@
         <v>267</v>
       </c>
       <c r="B263">
-        <v>0.02325581395348837</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E263">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F263">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H263">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>527</v>
@@ -17840,25 +17840,25 @@
         <v>268</v>
       </c>
       <c r="B264">
-        <v>0.02325581395348837</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E264">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F264">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>528</v>
@@ -17890,25 +17890,25 @@
         <v>269</v>
       </c>
       <c r="B265">
-        <v>0.02222222222222222</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E265">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F265">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H265">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>529</v>
@@ -17940,25 +17940,25 @@
         <v>270</v>
       </c>
       <c r="B266">
-        <v>0.02222222222222222</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E266">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F266">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>530</v>
@@ -17990,25 +17990,25 @@
         <v>271</v>
       </c>
       <c r="B267">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D267">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="E267">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="F267">
-        <v>0.02000000000000002</v>
+        <v>0.12</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>531</v>
@@ -18040,25 +18040,25 @@
         <v>272</v>
       </c>
       <c r="B268">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E268">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F268">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>532</v>
@@ -18090,25 +18090,25 @@
         <v>273</v>
       </c>
       <c r="B269">
-        <v>0.02040816326530612</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="C269">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D269">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E269">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F269">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G269" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H269">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>533</v>
@@ -18140,25 +18140,25 @@
         <v>274</v>
       </c>
       <c r="B270">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E270">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F270">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>534</v>
@@ -18190,25 +18190,25 @@
         <v>275</v>
       </c>
       <c r="B271">
-        <v>0.02013422818791946</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C271">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D271">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E271">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F271">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H271">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>535</v>
@@ -18240,25 +18240,25 @@
         <v>276</v>
       </c>
       <c r="B272">
-        <v>0.02</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
       <c r="D272">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E272">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F272">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>152</v>
@@ -18290,25 +18290,25 @@
         <v>277</v>
       </c>
       <c r="B273">
-        <v>0.01923076923076923</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D273">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E273">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F273">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>536</v>
@@ -18340,25 +18340,25 @@
         <v>278</v>
       </c>
       <c r="B274">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
       <c r="D274">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E274">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F274">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>537</v>
@@ -18390,25 +18390,25 @@
         <v>279</v>
       </c>
       <c r="B275">
-        <v>0.01851851851851852</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E275">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F275">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G275" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H275">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>538</v>
@@ -18440,25 +18440,25 @@
         <v>280</v>
       </c>
       <c r="B276">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C276">
         <v>1</v>
       </c>
       <c r="D276">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E276">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F276">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>539</v>
@@ -18493,22 +18493,22 @@
         <v>0.01785714285714286</v>
       </c>
       <c r="C277">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D277">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E277">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F277">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H277">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>540</v>
@@ -18540,25 +18540,25 @@
         <v>282</v>
       </c>
       <c r="B278">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C278">
         <v>1</v>
       </c>
       <c r="D278">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E278">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F278">
-        <v>0.06000000000000005</v>
+        <v>0.33</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>541</v>
@@ -18590,25 +18590,25 @@
         <v>283</v>
       </c>
       <c r="B279">
-        <v>0.01785714285714286</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C279">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D279">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E279">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="F279">
-        <v>0.08999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>542</v>
@@ -18640,25 +18640,25 @@
         <v>284</v>
       </c>
       <c r="B280">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C280">
         <v>1</v>
       </c>
       <c r="D280">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E280">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F280">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>543</v>
@@ -18690,25 +18690,25 @@
         <v>285</v>
       </c>
       <c r="B281">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C281">
         <v>1</v>
       </c>
       <c r="D281">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E281">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F281">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>544</v>
@@ -18740,25 +18740,25 @@
         <v>286</v>
       </c>
       <c r="B282">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D282">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E282">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="F282">
-        <v>0.06999999999999995</v>
+        <v>0.15</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>96</v>
@@ -18790,25 +18790,25 @@
         <v>287</v>
       </c>
       <c r="B283">
-        <v>0.01694915254237288</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C283">
         <v>1</v>
       </c>
       <c r="D283">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E283">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F283">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>545</v>
@@ -18840,25 +18840,25 @@
         <v>288</v>
       </c>
       <c r="B284">
-        <v>0.01694915254237288</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C284">
         <v>2</v>
       </c>
       <c r="D284">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E284">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F284">
-        <v>0.15</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>546</v>
@@ -18890,25 +18890,25 @@
         <v>289</v>
       </c>
       <c r="B285">
-        <v>0.01587301587301587</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C285">
         <v>1</v>
       </c>
       <c r="D285">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E285">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F285">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>547</v>
@@ -18940,25 +18940,25 @@
         <v>290</v>
       </c>
       <c r="B286">
-        <v>0.01538461538461539</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C286">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D286">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E286">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F286">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>548</v>
@@ -18990,25 +18990,25 @@
         <v>291</v>
       </c>
       <c r="B287">
-        <v>0.0131578947368421</v>
+        <v>0.0125</v>
       </c>
       <c r="C287">
         <v>1</v>
       </c>
       <c r="D287">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E287">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F287">
-        <v>0.2</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>549</v>
@@ -19040,25 +19040,25 @@
         <v>292</v>
       </c>
       <c r="B288">
-        <v>0.01265822784810127</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="C288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D288">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="E288">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F288">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G288" t="b">
         <v>1</v>
       </c>
       <c r="H288">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>550</v>
@@ -19090,28 +19090,28 @@
         <v>293</v>
       </c>
       <c r="B289">
-        <v>0.0125</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="C289">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D289">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="E289">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="F289">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G289" t="b">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="J289" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K289">
         <v>0.2758620689655172</v>
@@ -19140,25 +19140,25 @@
         <v>294</v>
       </c>
       <c r="B290">
-        <v>0.01226993865030675</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C290">
         <v>2</v>
       </c>
       <c r="D290">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="E290">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F290">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G290" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H290">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>139</v>
@@ -19190,25 +19190,25 @@
         <v>295</v>
       </c>
       <c r="B291">
-        <v>0.01212121212121212</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="C291">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D291">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="E291">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="F291">
-        <v>0.04000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G291" t="b">
         <v>1</v>
       </c>
       <c r="H291">
-        <v>326</v>
+        <v>90</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>136</v>
@@ -19240,25 +19240,25 @@
         <v>296</v>
       </c>
       <c r="B292">
-        <v>0.01204819277108434</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="C292">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D292">
         <v>2</v>
       </c>
       <c r="E292">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F292">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H292">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>551</v>
@@ -19290,25 +19290,25 @@
         <v>297</v>
       </c>
       <c r="B293">
-        <v>0.01098901098901099</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="C293">
         <v>1</v>
       </c>
       <c r="D293">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E293">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F293">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G293" t="b">
         <v>1</v>
       </c>
       <c r="H293">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>552</v>
@@ -19340,25 +19340,25 @@
         <v>298</v>
       </c>
       <c r="B294">
-        <v>0.01098901098901099</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="C294">
         <v>1</v>
       </c>
       <c r="D294">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E294">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F294">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G294" t="b">
         <v>1</v>
       </c>
       <c r="H294">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>553</v>
@@ -19390,25 +19390,25 @@
         <v>299</v>
       </c>
       <c r="B295">
-        <v>0.01052631578947368</v>
+        <v>0.0103448275862069</v>
       </c>
       <c r="C295">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D295">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E295">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="F295">
-        <v>0.14</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G295" t="b">
         <v>1</v>
       </c>
       <c r="H295">
-        <v>94</v>
+        <v>287</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>554</v>
@@ -19440,25 +19440,25 @@
         <v>300</v>
       </c>
       <c r="B296">
-        <v>0.01041666666666667</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C296">
         <v>1</v>
       </c>
       <c r="D296">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E296">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F296">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G296" t="b">
         <v>1</v>
       </c>
       <c r="H296">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>555</v>
@@ -19490,13 +19490,13 @@
         <v>301</v>
       </c>
       <c r="B297">
-        <v>0.0103448275862069</v>
+        <v>0.009646302250803859</v>
       </c>
       <c r="C297">
         <v>3</v>
       </c>
       <c r="D297">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E297">
         <v>0.93</v>
@@ -19508,7 +19508,7 @@
         <v>1</v>
       </c>
       <c r="H297">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>556</v>
@@ -19540,25 +19540,25 @@
         <v>302</v>
       </c>
       <c r="B298">
-        <v>0.01030927835051546</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C298">
         <v>1</v>
       </c>
       <c r="D298">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E298">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F298">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G298" t="b">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>557</v>
@@ -19590,25 +19590,25 @@
         <v>303</v>
       </c>
       <c r="B299">
-        <v>0.009646302250803859</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="C299">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D299">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E299">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F299">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G299" t="b">
         <v>1</v>
       </c>
       <c r="H299">
-        <v>308</v>
+        <v>109</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>558</v>
@@ -19640,25 +19640,25 @@
         <v>304</v>
       </c>
       <c r="B300">
-        <v>0.009523809523809525</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="C300">
         <v>1</v>
       </c>
       <c r="D300">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E300">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F300">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G300" t="b">
         <v>1</v>
       </c>
       <c r="H300">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>559</v>
@@ -19690,13 +19690,13 @@
         <v>305</v>
       </c>
       <c r="B301">
-        <v>0.00909090909090909</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="C301">
         <v>1</v>
       </c>
       <c r="D301">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E301">
         <v>0.95</v>
@@ -19708,7 +19708,7 @@
         <v>1</v>
       </c>
       <c r="H301">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>560</v>
@@ -19740,25 +19740,25 @@
         <v>306</v>
       </c>
       <c r="B302">
-        <v>0.008620689655172414</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="C302">
         <v>1</v>
       </c>
       <c r="D302">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E302">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F302">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G302" t="b">
         <v>1</v>
       </c>
       <c r="H302">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>561</v>
@@ -19790,25 +19790,25 @@
         <v>307</v>
       </c>
       <c r="B303">
-        <v>0.008620689655172414</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="C303">
         <v>1</v>
       </c>
       <c r="D303">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E303">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F303">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G303" t="b">
         <v>1</v>
       </c>
       <c r="H303">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>562</v>
@@ -19840,25 +19840,25 @@
         <v>308</v>
       </c>
       <c r="B304">
-        <v>0.008547008547008548</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="C304">
         <v>1</v>
       </c>
       <c r="D304">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E304">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F304">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G304" t="b">
         <v>1</v>
       </c>
       <c r="H304">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>143</v>
@@ -19890,25 +19890,25 @@
         <v>309</v>
       </c>
       <c r="B305">
-        <v>0.008064516129032258</v>
+        <v>0.008</v>
       </c>
       <c r="C305">
         <v>1</v>
       </c>
       <c r="D305">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E305">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F305">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G305" t="b">
         <v>1</v>
       </c>
       <c r="H305">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J305" s="1" t="s">
         <v>563</v>
@@ -19940,25 +19940,25 @@
         <v>310</v>
       </c>
       <c r="B306">
-        <v>0.008064516129032258</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C306">
         <v>1</v>
       </c>
       <c r="D306">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E306">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F306">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G306" t="b">
         <v>1</v>
       </c>
       <c r="H306">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J306" s="1" t="s">
         <v>564</v>
@@ -19990,13 +19990,13 @@
         <v>311</v>
       </c>
       <c r="B307">
-        <v>0.008</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="C307">
         <v>1</v>
       </c>
       <c r="D307">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E307">
         <v>0.96</v>
@@ -20008,7 +20008,7 @@
         <v>1</v>
       </c>
       <c r="H307">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="J307" s="1" t="s">
         <v>565</v>
@@ -20040,13 +20040,13 @@
         <v>312</v>
       </c>
       <c r="B308">
-        <v>0.007936507936507936</v>
+        <v>0.006611570247933884</v>
       </c>
       <c r="C308">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D308">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E308">
         <v>0.92</v>
@@ -20058,7 +20058,7 @@
         <v>1</v>
       </c>
       <c r="H308">
-        <v>125</v>
+        <v>601</v>
       </c>
       <c r="J308" s="1" t="s">
         <v>566</v>
@@ -20090,25 +20090,25 @@
         <v>313</v>
       </c>
       <c r="B309">
-        <v>0.007142857142857143</v>
+        <v>0.006335797254487857</v>
       </c>
       <c r="C309">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D309">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E309">
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
       <c r="F309">
-        <v>0.04000000000000004</v>
+        <v>0.22</v>
       </c>
       <c r="G309" t="b">
         <v>1</v>
       </c>
       <c r="H309">
-        <v>139</v>
+        <v>941</v>
       </c>
       <c r="J309" s="1" t="s">
         <v>567</v>
@@ -20140,25 +20140,25 @@
         <v>314</v>
       </c>
       <c r="B310">
-        <v>0.006611570247933884</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="C310">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D310">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E310">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F310">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G310" t="b">
         <v>1</v>
       </c>
       <c r="H310">
-        <v>601</v>
+        <v>167</v>
       </c>
       <c r="J310" s="1" t="s">
         <v>568</v>
@@ -20190,25 +20190,25 @@
         <v>315</v>
       </c>
       <c r="B311">
-        <v>0.006335797254487857</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="C311">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D311">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E311">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="F311">
-        <v>0.22</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G311" t="b">
         <v>1</v>
       </c>
       <c r="H311">
-        <v>941</v>
+        <v>186</v>
       </c>
       <c r="J311" s="1" t="s">
         <v>569</v>
@@ -20240,13 +20240,13 @@
         <v>316</v>
       </c>
       <c r="B312">
-        <v>0.005952380952380952</v>
+        <v>0.004993757802746567</v>
       </c>
       <c r="C312">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D312">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="E312">
         <v>0.9399999999999999</v>
@@ -20258,7 +20258,7 @@
         <v>1</v>
       </c>
       <c r="H312">
-        <v>167</v>
+        <v>797</v>
       </c>
       <c r="J312" s="1" t="s">
         <v>7</v>
@@ -20290,25 +20290,25 @@
         <v>317</v>
       </c>
       <c r="B313">
-        <v>0.0053475935828877</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="C313">
         <v>1</v>
       </c>
       <c r="D313">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E313">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F313">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G313" t="b">
         <v>1</v>
       </c>
       <c r="H313">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="J313" s="1" t="s">
         <v>570</v>
@@ -20340,25 +20340,25 @@
         <v>318</v>
       </c>
       <c r="B314">
-        <v>0.004993757802746567</v>
+        <v>0.004639175257731959</v>
       </c>
       <c r="C314">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D314">
-        <v>70</v>
+        <v>212</v>
       </c>
       <c r="E314">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F314">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G314" t="b">
         <v>1</v>
       </c>
       <c r="H314">
-        <v>797</v>
+        <v>1931</v>
       </c>
       <c r="J314" s="1" t="s">
         <v>571</v>
@@ -20390,25 +20390,25 @@
         <v>319</v>
       </c>
       <c r="B315">
-        <v>0.004694835680751174</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="C315">
         <v>1</v>
       </c>
       <c r="D315">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="E315">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F315">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G315" t="b">
         <v>1</v>
       </c>
       <c r="H315">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="J315" s="1" t="s">
         <v>572</v>
@@ -20440,25 +20440,25 @@
         <v>320</v>
       </c>
       <c r="B316">
-        <v>0.004639175257731959</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="C316">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D316">
-        <v>212</v>
+        <v>2</v>
       </c>
       <c r="E316">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="F316">
-        <v>0.04000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G316" t="b">
         <v>1</v>
       </c>
       <c r="H316">
-        <v>1931</v>
+        <v>234</v>
       </c>
       <c r="J316" s="1" t="s">
         <v>573</v>
@@ -20490,25 +20490,25 @@
         <v>321</v>
       </c>
       <c r="B317">
-        <v>0.004464285714285714</v>
+        <v>0.003699136868064118</v>
       </c>
       <c r="C317">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D317">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="E317">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F317">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G317" t="b">
         <v>1</v>
       </c>
       <c r="H317">
-        <v>223</v>
+        <v>808</v>
       </c>
       <c r="J317" s="1" t="s">
         <v>574</v>
@@ -20540,25 +20540,25 @@
         <v>322</v>
       </c>
       <c r="B318">
-        <v>0.00425531914893617</v>
+        <v>0.003616636528028933</v>
       </c>
       <c r="C318">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D318">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="E318">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F318">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G318" t="b">
         <v>1</v>
       </c>
       <c r="H318">
-        <v>234</v>
+        <v>1102</v>
       </c>
       <c r="J318" s="1" t="s">
         <v>575</v>
@@ -20590,25 +20590,25 @@
         <v>323</v>
       </c>
       <c r="B319">
-        <v>0.003699136868064118</v>
+        <v>0.003460207612456748</v>
       </c>
       <c r="C319">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D319">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="E319">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="F319">
-        <v>0.03000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="G319" t="b">
         <v>1</v>
       </c>
       <c r="H319">
-        <v>808</v>
+        <v>288</v>
       </c>
       <c r="J319" s="1" t="s">
         <v>576</v>
@@ -20640,25 +20640,25 @@
         <v>324</v>
       </c>
       <c r="B320">
-        <v>0.003616636528028933</v>
+        <v>0.002840909090909091</v>
       </c>
       <c r="C320">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D320">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="E320">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F320">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G320" t="b">
         <v>1</v>
       </c>
       <c r="H320">
-        <v>1102</v>
+        <v>351</v>
       </c>
       <c r="J320" s="1" t="s">
         <v>577</v>
@@ -20690,25 +20690,25 @@
         <v>325</v>
       </c>
       <c r="B321">
-        <v>0.003460207612456748</v>
+        <v>0.002822865208186309</v>
       </c>
       <c r="C321">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D321">
-        <v>5</v>
+        <v>281</v>
       </c>
       <c r="E321">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="F321">
-        <v>0.2</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G321" t="b">
         <v>1</v>
       </c>
       <c r="H321">
-        <v>288</v>
+        <v>2826</v>
       </c>
       <c r="J321" s="1" t="s">
         <v>578</v>
@@ -20740,25 +20740,25 @@
         <v>326</v>
       </c>
       <c r="B322">
-        <v>0.002840909090909091</v>
+        <v>0.002541296060991106</v>
       </c>
       <c r="C322">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D322">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="E322">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="F322">
-        <v>0.11</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G322" t="b">
         <v>1</v>
       </c>
       <c r="H322">
-        <v>351</v>
+        <v>785</v>
       </c>
       <c r="J322" s="1" t="s">
         <v>579</v>
@@ -20790,25 +20790,25 @@
         <v>327</v>
       </c>
       <c r="B323">
-        <v>0.002822865208186309</v>
+        <v>0.002292826727808713</v>
       </c>
       <c r="C323">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D323">
-        <v>281</v>
+        <v>155</v>
       </c>
       <c r="E323">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F323">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G323" t="b">
         <v>1</v>
       </c>
       <c r="H323">
-        <v>2826</v>
+        <v>3046</v>
       </c>
       <c r="J323" s="1" t="s">
         <v>580</v>
@@ -20840,13 +20840,13 @@
         <v>328</v>
       </c>
       <c r="B324">
-        <v>0.002541296060991106</v>
+        <v>0.001937984496124031</v>
       </c>
       <c r="C324">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D324">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="E324">
         <v>0.98</v>
@@ -20858,7 +20858,7 @@
         <v>1</v>
       </c>
       <c r="H324">
-        <v>785</v>
+        <v>515</v>
       </c>
       <c r="J324" s="1" t="s">
         <v>581</v>
@@ -20886,30 +20886,6 @@
       </c>
     </row>
     <row r="325" spans="1:17">
-      <c r="A325" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B325">
-        <v>0.002292826727808713</v>
-      </c>
-      <c r="C325">
-        <v>7</v>
-      </c>
-      <c r="D325">
-        <v>155</v>
-      </c>
-      <c r="E325">
-        <v>0.95</v>
-      </c>
-      <c r="F325">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G325" t="b">
-        <v>1</v>
-      </c>
-      <c r="H325">
-        <v>3046</v>
-      </c>
       <c r="J325" s="1" t="s">
         <v>582</v>
       </c>
@@ -20936,30 +20912,6 @@
       </c>
     </row>
     <row r="326" spans="1:17">
-      <c r="A326" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B326">
-        <v>0.001937984496124031</v>
-      </c>
-      <c r="C326">
-        <v>1</v>
-      </c>
-      <c r="D326">
-        <v>52</v>
-      </c>
-      <c r="E326">
-        <v>0.98</v>
-      </c>
-      <c r="F326">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="G326" t="b">
-        <v>1</v>
-      </c>
-      <c r="H326">
-        <v>515</v>
-      </c>
       <c r="J326" s="1" t="s">
         <v>583</v>
       </c>
@@ -21221,7 +21173,7 @@
     </row>
     <row r="336" spans="1:17">
       <c r="J336" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K336">
         <v>0.244131455399061</v>
@@ -21429,7 +21381,7 @@
     </row>
     <row r="344" spans="10:17">
       <c r="J344" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K344">
         <v>0.2361111111111111</v>
@@ -21819,7 +21771,7 @@
     </row>
     <row r="359" spans="10:17">
       <c r="J359" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K359">
         <v>0.2272727272727273</v>
@@ -22625,7 +22577,7 @@
     </row>
     <row r="390" spans="10:17">
       <c r="J390" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K390">
         <v>0.2173913043478261</v>
@@ -22729,7 +22681,7 @@
     </row>
     <row r="394" spans="10:17">
       <c r="J394" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K394">
         <v>0.2142857142857143</v>
@@ -22781,7 +22733,7 @@
     </row>
     <row r="396" spans="10:17">
       <c r="J396" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K396">
         <v>0.2142857142857143</v>
@@ -22885,7 +22837,7 @@
     </row>
     <row r="400" spans="10:17">
       <c r="J400" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K400">
         <v>0.21256038647343</v>
@@ -22911,7 +22863,7 @@
     </row>
     <row r="401" spans="10:17">
       <c r="J401" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K401">
         <v>0.2105263157894737</v>
@@ -22989,7 +22941,7 @@
     </row>
     <row r="404" spans="10:17">
       <c r="J404" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K404">
         <v>0.2096774193548387</v>
@@ -23041,7 +22993,7 @@
     </row>
     <row r="406" spans="10:17">
       <c r="J406" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K406">
         <v>0.2077922077922078</v>
@@ -23197,7 +23149,7 @@
     </row>
     <row r="412" spans="10:17">
       <c r="J412" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K412">
         <v>0.2</v>
@@ -23275,7 +23227,7 @@
     </row>
     <row r="415" spans="10:17">
       <c r="J415" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K415">
         <v>0.2</v>
@@ -23587,7 +23539,7 @@
     </row>
     <row r="427" spans="10:17">
       <c r="J427" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K427">
         <v>0.2</v>
@@ -23665,7 +23617,7 @@
     </row>
     <row r="430" spans="10:17">
       <c r="J430" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K430">
         <v>0.1971830985915493</v>
@@ -23769,7 +23721,7 @@
     </row>
     <row r="434" spans="10:17">
       <c r="J434" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K434">
         <v>0.1923076923076923</v>
@@ -23925,7 +23877,7 @@
     </row>
     <row r="440" spans="10:17">
       <c r="J440" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K440">
         <v>0.1904761904761905</v>
@@ -24003,7 +23955,7 @@
     </row>
     <row r="443" spans="10:17">
       <c r="J443" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K443">
         <v>0.1864406779661017</v>
@@ -24081,7 +24033,7 @@
     </row>
     <row r="446" spans="10:17">
       <c r="J446" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K446">
         <v>0.1851851851851852</v>
@@ -24107,7 +24059,7 @@
     </row>
     <row r="447" spans="10:17">
       <c r="J447" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K447">
         <v>0.1847133757961783</v>
@@ -24471,7 +24423,7 @@
     </row>
     <row r="461" spans="10:17">
       <c r="J461" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K461">
         <v>0.1785714285714286</v>
@@ -24835,7 +24787,7 @@
     </row>
     <row r="475" spans="10:17">
       <c r="J475" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K475">
         <v>0.1666666666666667</v>
@@ -26239,7 +26191,7 @@
     </row>
     <row r="529" spans="10:17">
       <c r="J529" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K529">
         <v>0.1666666666666667</v>
@@ -26681,7 +26633,7 @@
     </row>
     <row r="546" spans="10:17">
       <c r="J546" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K546">
         <v>0.1615384615384615</v>
@@ -26733,7 +26685,7 @@
     </row>
     <row r="548" spans="10:17">
       <c r="J548" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K548">
         <v>0.1603053435114504</v>
@@ -26785,7 +26737,7 @@
     </row>
     <row r="550" spans="10:17">
       <c r="J550" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K550">
         <v>0.1595744680851064</v>
@@ -27461,7 +27413,7 @@
     </row>
     <row r="576" spans="10:17">
       <c r="J576" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K576">
         <v>0.1515151515151515</v>
@@ -27487,7 +27439,7 @@
     </row>
     <row r="577" spans="10:17">
       <c r="J577" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K577">
         <v>0.1515151515151515</v>
@@ -27539,7 +27491,7 @@
     </row>
     <row r="579" spans="10:17">
       <c r="J579" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K579">
         <v>0.1506849315068493</v>
@@ -27643,7 +27595,7 @@
     </row>
     <row r="583" spans="10:17">
       <c r="J583" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K583">
         <v>0.148936170212766</v>
@@ -27695,7 +27647,7 @@
     </row>
     <row r="585" spans="10:17">
       <c r="J585" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K585">
         <v>0.1470588235294118</v>
@@ -27747,7 +27699,7 @@
     </row>
     <row r="587" spans="10:17">
       <c r="J587" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K587">
         <v>0.1463414634146341</v>
@@ -28345,7 +28297,7 @@
     </row>
     <row r="610" spans="10:17">
       <c r="J610" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K610">
         <v>0.1428571428571428</v>
@@ -29359,7 +29311,7 @@
     </row>
     <row r="649" spans="10:17">
       <c r="J649" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K649">
         <v>0.1419753086419753</v>
@@ -29541,7 +29493,7 @@
     </row>
     <row r="656" spans="10:17">
       <c r="J656" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K656">
         <v>0.1363636363636364</v>
@@ -29593,7 +29545,7 @@
     </row>
     <row r="658" spans="10:17">
       <c r="J658" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K658">
         <v>0.1363636363636364</v>
@@ -29671,7 +29623,7 @@
     </row>
     <row r="661" spans="10:17">
       <c r="J661" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K661">
         <v>0.1353383458646616</v>
@@ -29697,7 +29649,7 @@
     </row>
     <row r="662" spans="10:17">
       <c r="J662" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K662">
         <v>0.1351351351351351</v>
@@ -29879,7 +29831,7 @@
     </row>
     <row r="669" spans="10:17">
       <c r="J669" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K669">
         <v>0.1308411214953271</v>
@@ -29905,7 +29857,7 @@
     </row>
     <row r="670" spans="10:17">
       <c r="J670" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K670">
         <v>0.1304347826086956</v>
@@ -30139,7 +30091,7 @@
     </row>
     <row r="679" spans="10:17">
       <c r="J679" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K679">
         <v>0.1282051282051282</v>
@@ -30165,7 +30117,7 @@
     </row>
     <row r="680" spans="10:17">
       <c r="J680" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K680">
         <v>0.1272727272727273</v>
@@ -30737,7 +30689,7 @@
     </row>
     <row r="702" spans="10:17">
       <c r="J702" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K702">
         <v>0.125</v>
@@ -30971,7 +30923,7 @@
     </row>
     <row r="711" spans="10:17">
       <c r="J711" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K711">
         <v>0.125</v>
@@ -31751,7 +31703,7 @@
     </row>
     <row r="741" spans="10:17">
       <c r="J741" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K741">
         <v>0.1230769230769231</v>
@@ -31829,7 +31781,7 @@
     </row>
     <row r="744" spans="10:17">
       <c r="J744" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K744">
         <v>0.1203703703703704</v>
@@ -31933,7 +31885,7 @@
     </row>
     <row r="748" spans="10:17">
       <c r="J748" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K748">
         <v>0.1199551569506726</v>
@@ -31959,7 +31911,7 @@
     </row>
     <row r="749" spans="10:17">
       <c r="J749" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K749">
         <v>0.119047619047619</v>
@@ -32349,7 +32301,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K764">
         <v>0.1141975308641975</v>
@@ -32375,7 +32327,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K765">
         <v>0.1136363636363636</v>
@@ -32401,7 +32353,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K766">
         <v>0.1136363636363636</v>
@@ -32661,7 +32613,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K776">
         <v>0.1111111111111111</v>
@@ -33597,7 +33549,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K812">
         <v>0.1098265895953757</v>
@@ -33831,7 +33783,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K821">
         <v>0.1052631578947368</v>
@@ -34039,7 +33991,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K829">
         <v>0.1022727272727273</v>
@@ -34091,7 +34043,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K831">
         <v>0.1016949152542373</v>
@@ -34117,7 +34069,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K832">
         <v>0.1002227171492205</v>
@@ -34611,7 +34563,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K851">
         <v>0.1</v>
@@ -35079,7 +35031,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K869">
         <v>0.09677419354838709</v>
@@ -35443,7 +35395,7 @@
     </row>
     <row r="883" spans="10:17">
       <c r="J883" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K883">
         <v>0.09512652296157451</v>
@@ -35573,7 +35525,7 @@
     </row>
     <row r="888" spans="10:17">
       <c r="J888" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K888">
         <v>0.09239130434782608</v>
@@ -35911,7 +35863,7 @@
     </row>
     <row r="901" spans="10:17">
       <c r="J901" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K901">
         <v>0.09090909090909091</v>
@@ -36899,7 +36851,7 @@
     </row>
     <row r="939" spans="10:17">
       <c r="J939" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K939">
         <v>0.09010600706713781</v>
@@ -36977,7 +36929,7 @@
     </row>
     <row r="942" spans="10:17">
       <c r="J942" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K942">
         <v>0.08809293320425944</v>
@@ -37029,7 +36981,7 @@
     </row>
     <row r="944" spans="10:17">
       <c r="J944" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K944">
         <v>0.08759124087591241</v>
@@ -37055,7 +37007,7 @@
     </row>
     <row r="945" spans="10:17">
       <c r="J945" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K945">
         <v>0.0873015873015873</v>
@@ -37081,7 +37033,7 @@
     </row>
     <row r="946" spans="10:17">
       <c r="J946" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K946">
         <v>0.08695652173913043</v>
@@ -37185,7 +37137,7 @@
     </row>
     <row r="950" spans="10:17">
       <c r="J950" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K950">
         <v>0.08661417322834646</v>
@@ -37549,7 +37501,7 @@
     </row>
     <row r="964" spans="10:17">
       <c r="J964" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K964">
         <v>0.08333333333333333</v>
@@ -38797,7 +38749,7 @@
     </row>
     <row r="1012" spans="10:17">
       <c r="J1012" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K1012">
         <v>0.07692307692307693</v>
@@ -39031,7 +38983,7 @@
     </row>
     <row r="1021" spans="10:17">
       <c r="J1021" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K1021">
         <v>0.07692307692307693</v>
@@ -39265,7 +39217,7 @@
     </row>
     <row r="1030" spans="10:17">
       <c r="J1030" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K1030">
         <v>0.07647740440324449</v>
@@ -39681,7 +39633,7 @@
     </row>
     <row r="1046" spans="10:17">
       <c r="J1046" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K1046">
         <v>0.07142857142857142</v>
@@ -40097,7 +40049,7 @@
     </row>
     <row r="1062" spans="10:17">
       <c r="J1062" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K1062">
         <v>0.0696594427244582</v>
@@ -40201,7 +40153,7 @@
     </row>
     <row r="1066" spans="10:17">
       <c r="J1066" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K1066">
         <v>0.06896551724137931</v>
@@ -40279,7 +40231,7 @@
     </row>
     <row r="1069" spans="10:17">
       <c r="J1069" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K1069">
         <v>0.06818181818181818</v>
@@ -40565,7 +40517,7 @@
     </row>
     <row r="1080" spans="10:17">
       <c r="J1080" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K1080">
         <v>0.06666666666666667</v>
@@ -40643,7 +40595,7 @@
     </row>
     <row r="1083" spans="10:17">
       <c r="J1083" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K1083">
         <v>0.06666666666666667</v>
@@ -40903,7 +40855,7 @@
     </row>
     <row r="1093" spans="10:17">
       <c r="J1093" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K1093">
         <v>0.06451612903225806</v>
@@ -41553,7 +41505,7 @@
     </row>
     <row r="1118" spans="10:17">
       <c r="J1118" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K1118">
         <v>0.06060606060606061</v>
@@ -41605,7 +41557,7 @@
     </row>
     <row r="1120" spans="10:17">
       <c r="J1120" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K1120">
         <v>0.06</v>
@@ -41631,7 +41583,7 @@
     </row>
     <row r="1121" spans="10:17">
       <c r="J1121" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K1121">
         <v>0.06</v>
@@ -41917,7 +41869,7 @@
     </row>
     <row r="1132" spans="10:17">
       <c r="J1132" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K1132">
         <v>0.05882352941176471</v>
@@ -42333,7 +42285,7 @@
     </row>
     <row r="1148" spans="10:17">
       <c r="J1148" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K1148">
         <v>0.05555555555555555</v>
@@ -42593,7 +42545,7 @@
     </row>
     <row r="1158" spans="10:17">
       <c r="J1158" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K1158">
         <v>0.05357142857142857</v>
@@ -42775,7 +42727,7 @@
     </row>
     <row r="1165" spans="10:17">
       <c r="J1165" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K1165">
         <v>0.05263157894736842</v>
@@ -43061,7 +43013,7 @@
     </row>
     <row r="1176" spans="10:17">
       <c r="J1176" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K1176">
         <v>0.05063291139240506</v>
@@ -43243,7 +43195,7 @@
     </row>
     <row r="1183" spans="10:17">
       <c r="J1183" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K1183">
         <v>0.05</v>
@@ -43399,7 +43351,7 @@
     </row>
     <row r="1189" spans="10:17">
       <c r="J1189" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K1189">
         <v>0.04761904761904762</v>
@@ -43529,7 +43481,7 @@
     </row>
     <row r="1194" spans="10:17">
       <c r="J1194" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K1194">
         <v>0.04753673292999136</v>
@@ -43555,7 +43507,7 @@
     </row>
     <row r="1195" spans="10:17">
       <c r="J1195" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K1195">
         <v>0.04633688165309956</v>
@@ -43581,7 +43533,7 @@
     </row>
     <row r="1196" spans="10:17">
       <c r="J1196" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K1196">
         <v>0.04615384615384616</v>
@@ -43971,7 +43923,7 @@
     </row>
     <row r="1211" spans="10:17">
       <c r="J1211" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K1211">
         <v>0.04347826086956522</v>
@@ -43997,7 +43949,7 @@
     </row>
     <row r="1212" spans="10:17">
       <c r="J1212" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K1212">
         <v>0.0425531914893617</v>
@@ -44413,7 +44365,7 @@
     </row>
     <row r="1228" spans="10:17">
       <c r="J1228" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K1228">
         <v>0.03703703703703703</v>
@@ -44543,7 +44495,7 @@
     </row>
     <row r="1233" spans="10:17">
       <c r="J1233" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K1233">
         <v>0.03636363636363636</v>
@@ -44621,7 +44573,7 @@
     </row>
     <row r="1236" spans="10:17">
       <c r="J1236" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K1236">
         <v>0.03571428571428571</v>
@@ -44777,7 +44729,7 @@
     </row>
     <row r="1242" spans="10:17">
       <c r="J1242" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K1242">
         <v>0.03448275862068965</v>
@@ -44881,7 +44833,7 @@
     </row>
     <row r="1246" spans="10:17">
       <c r="J1246" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K1246">
         <v>0.03333333333333333</v>
@@ -44959,7 +44911,7 @@
     </row>
     <row r="1249" spans="10:17">
       <c r="J1249" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K1249">
         <v>0.03149606299212598</v>
@@ -45349,7 +45301,7 @@
     </row>
     <row r="1264" spans="10:17">
       <c r="J1264" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K1264">
         <v>0.02803738317757009</v>
@@ -45895,7 +45847,7 @@
     </row>
     <row r="1285" spans="10:17">
       <c r="J1285" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K1285">
         <v>0.02228412256267409</v>
@@ -45999,7 +45951,7 @@
     </row>
     <row r="1289" spans="10:17">
       <c r="J1289" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K1289">
         <v>0.02182952182952183</v>
@@ -46233,7 +46185,7 @@
     </row>
     <row r="1298" spans="10:17">
       <c r="J1298" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K1298">
         <v>0.01923076923076923</v>
@@ -46415,7 +46367,7 @@
     </row>
     <row r="1305" spans="10:17">
       <c r="J1305" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K1305">
         <v>0.01724137931034483</v>
@@ -46467,7 +46419,7 @@
     </row>
     <row r="1307" spans="10:17">
       <c r="J1307" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K1307">
         <v>0.016</v>
@@ -46597,7 +46549,7 @@
     </row>
     <row r="1312" spans="10:17">
       <c r="J1312" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K1312">
         <v>0.0136986301369863</v>
@@ -46675,7 +46627,7 @@
     </row>
     <row r="1315" spans="10:17">
       <c r="J1315" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K1315">
         <v>0.0125</v>
@@ -46805,7 +46757,7 @@
     </row>
     <row r="1320" spans="10:17">
       <c r="J1320" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K1320">
         <v>0.01098901098901099</v>
@@ -46935,7 +46887,7 @@
     </row>
     <row r="1325" spans="10:17">
       <c r="J1325" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K1325">
         <v>0.00425531914893617</v>
